--- a/DATA_VENTA26.1.xlsx
+++ b/DATA_VENTA26.1.xlsx
@@ -625,10 +625,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA2" s="1"/>
       <c r="AB2" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
@@ -685,11 +682,11 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="AP2" s="3">
+      <c r="AP2" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45689.0)</f>
         <v>45689</v>
       </c>
-      <c r="AQ2" s="3">
+      <c r="AQ2" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45684.0)</f>
         <v>45684</v>
       </c>
@@ -868,10 +865,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA3" s="1"/>
       <c r="AB3" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
@@ -928,11 +922,11 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2025.0)</f>
         <v>2025</v>
       </c>
-      <c r="AP3" s="3">
+      <c r="AP3" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45748.0)</f>
         <v>45748</v>
       </c>
-      <c r="AQ3" s="3">
+      <c r="AQ3" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45747.0)</f>
         <v>45747</v>
       </c>
@@ -1114,10 +1108,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA4" s="1"/>
       <c r="AB4" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
@@ -1174,11 +1165,11 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2025.0)</f>
         <v>2025</v>
       </c>
-      <c r="AP4" s="3">
+      <c r="AP4" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45748.0)</f>
         <v>45748</v>
       </c>
-      <c r="AQ4" s="3">
+      <c r="AQ4" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45747.0)</f>
         <v>45747</v>
       </c>
@@ -1360,10 +1351,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA5" s="1"/>
       <c r="AB5" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
@@ -1414,11 +1402,11 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2025.0)</f>
         <v>2025</v>
       </c>
-      <c r="AP5" s="3">
+      <c r="AP5" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
         <v>45778</v>
       </c>
-      <c r="AQ5" s="3">
+      <c r="AQ5" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
         <v>45775</v>
       </c>
@@ -1498,48 +1486,48 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5173535.0)</f>
-        <v>5173535</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5019828.0)</f>
+        <v>5019828</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000425675")</f>
-        <v>0000425675</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000424908")</f>
+        <v>0000424908</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUCÍANA BELÉN ")</f>
-        <v>LUCÍANA BELÉN </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISRAEL SEBASTIÁN")</f>
+        <v>ISRAEL SEBASTIÁN</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DE SOUZA FERREYRA YLLESCAS")</f>
-        <v>DE SOUZA FERREYRA YLLESCAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VASALLO TORRES")</f>
+        <v>VASALLO TORRES</v>
       </c>
       <c r="F6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.1506669E7)</f>
-        <v>61506669</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.4744002E7)</f>
+        <v>74744002</v>
       </c>
       <c r="G6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.5408678E8)</f>
-        <v>954086780</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.36171682E8)</f>
+        <v>936171682</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"belenlucianaa1710@gmail.com")</f>
-        <v>belenlucianaa1710@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Torressebastian304@gmail.com")</f>
+        <v>Torressebastian304@gmail.com</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
-        <v>Comunicación Audiovisual y Cine</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura")</f>
+        <v>Arquitectura</v>
       </c>
       <c r="J6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
-        <v>Comunicaciones</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecturas")</f>
+        <v>Arquitecturas</v>
       </c>
       <c r="K6" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
         <v>Antigua</v>
       </c>
       <c r="L6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión de Alto Rendimiento")</f>
-        <v>Admisión de Alto Rendimiento</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Extraordinaria (Traslados)")</f>
+        <v>Admisión Extraordinaria (Traslados)</v>
       </c>
       <c r="M6" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
@@ -1550,61 +1538,55 @@
         <v>Diurno</v>
       </c>
       <c r="O6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
-        <v>NUEVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRASLADO CON CONVA")</f>
+        <v>TRASLADO CON CONVA</v>
       </c>
       <c r="P6" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RECA")</f>
         <v>RECA</v>
       </c>
       <c r="Q6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RECATEGORIZACION")</f>
-        <v>RECATEGORIZACION</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RECATEGORIZACIÓN")</f>
+        <v>RECATEGORIZACIÓN</v>
       </c>
       <c r="R6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
-        <v>NINGUNO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Visita Guiada")</f>
+        <v>Visita Guiada</v>
       </c>
       <c r="S6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRIGO")</f>
-        <v>RODRIGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
       </c>
       <c r="T6" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45791.0)</f>
-        <v>45791</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45780.0)</f>
+        <v>45780</v>
       </c>
       <c r="U6" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
         <v>CARGO</v>
       </c>
       <c r="V6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
-        <v>PAGO COMPLETO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
+        <v>PAGO FRACCIONADO</v>
       </c>
       <c r="W6" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
       <c r="X6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"31/05/2025")</f>
+        <v>31/05/2025</v>
       </c>
       <c r="Y6" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45791.0)</f>
-        <v>45791</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45820.0)</f>
+        <v>45820</v>
       </c>
       <c r="Z6" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
-      </c>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
       <c r="AC6" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
@@ -1614,12 +1596,12 @@
         <v>0</v>
       </c>
       <c r="AE6" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1700.0)</f>
-        <v>1700</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
+        <v>850</v>
       </c>
       <c r="AF6" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
-        <v>1500</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
+        <v>850</v>
       </c>
       <c r="AG6" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -1634,40 +1616,37 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),329201.0)</f>
-        <v>329201</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1435809.0)</f>
+        <v>1435809</v>
       </c>
       <c r="AK6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
-        <v>10 kms a 15 kms</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
+        <v>Más de 15 kms</v>
       </c>
       <c r="AL6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"08 901 a 1,299")</f>
-        <v>08 901 a 1,299</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"04 200 a 300")</f>
+        <v>04 200 a 300</v>
       </c>
       <c r="AM6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="AN6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
-        <v> -</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Escuela Superior Sencico")</f>
+        <v>Escuela Superior Sencico</v>
+      </c>
+      <c r="AN6" s="1"/>
       <c r="AO6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2025.0)</f>
-        <v>2025</v>
-      </c>
-      <c r="AP6" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2021.0)</f>
+        <v>2021</v>
+      </c>
+      <c r="AP6" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
         <v>45778</v>
       </c>
-      <c r="AQ6" s="3">
+      <c r="AQ6" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
         <v>45775</v>
       </c>
       <c r="AR6" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45769.0)</f>
-        <v>45769</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45761.0)</f>
+        <v>45761</v>
       </c>
       <c r="AS6" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45748.0)</f>
@@ -1678,8 +1657,8 @@
         <v>45747</v>
       </c>
       <c r="AU6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),22.0)</f>
-        <v>22</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),59.0)</f>
+        <v>59</v>
       </c>
       <c r="AV6" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
@@ -1690,40 +1669,37 @@
         <v>BIDIRECCIONAL</v>
       </c>
       <c r="AX6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
-        <v>ORGANICO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO SUFICIENCIA")</f>
+        <v>NO SUFICIENCIA</v>
       </c>
       <c r="AY6" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="AZ6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Daniel Zapata")</f>
-        <v>Daniel Zapata</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Cinthia Mariella Orosco")</f>
+        <v>Cinthia Mariella Orosco</v>
       </c>
       <c r="BA6" s="6">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BB6" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
-        <v>1500</v>
-      </c>
-      <c r="BC6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),830.0)</f>
+        <v>830</v>
+      </c>
+      <c r="BC6" s="1"/>
       <c r="BD6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
-        <v> -</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
       </c>
       <c r="BE6" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
       <c r="BF6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
-        <v>N/A</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0")</f>
+        <v>0</v>
       </c>
       <c r="BG6" s="1"/>
       <c r="BH6" s="1"/>
@@ -1738,32 +1714,32 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2285717.0)</f>
-        <v>2285717</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5173535.0)</f>
+        <v>5173535</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000425662")</f>
-        <v>0000425662</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000425675")</f>
+        <v>0000425675</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ADRIANO JAVIER ")</f>
-        <v>ADRIANO JAVIER </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUCÍANA BELÉN ")</f>
+        <v>LUCÍANA BELÉN </v>
       </c>
       <c r="E7" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAMIREZ FLORES")</f>
-        <v>RAMIREZ FLORES</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DE SOUZA FERREYRA YLLESCAS")</f>
+        <v>DE SOUZA FERREYRA YLLESCAS</v>
       </c>
       <c r="F7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.1545474E7)</f>
-        <v>61545474</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.1506669E7)</f>
+        <v>61506669</v>
       </c>
       <c r="G7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.66528972E8)</f>
-        <v>966528972</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.5408678E8)</f>
+        <v>954086780</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"adriano.ramirez2008@gmail.com")</f>
-        <v>adriano.ramirez2008@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"belenlucianaa1710@gmail.com")</f>
+        <v>belenlucianaa1710@gmail.com</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
@@ -1794,12 +1770,12 @@
         <v>NUEVO</v>
       </c>
       <c r="P7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA")</f>
-        <v>BECA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RECA")</f>
+        <v>RECA</v>
       </c>
       <c r="Q7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA CARRERAS CORE")</f>
-        <v>BECA CARRERAS CORE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RECATEGORIZACION")</f>
+        <v>RECATEGORIZACION</v>
       </c>
       <c r="R7" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
@@ -1814,52 +1790,49 @@
         <v>45791</v>
       </c>
       <c r="U7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO LINK")</f>
-        <v>PAGO LINK</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
+        <v>CARGO</v>
       </c>
       <c r="V7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
-        <v>PAGO FRACCIONADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
       </c>
       <c r="W7" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
       <c r="X7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"15/05/2025")</f>
-        <v>15/05/2025</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
       </c>
       <c r="Y7" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45792.0)</f>
-        <v>45792</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45791.0)</f>
+        <v>45791</v>
       </c>
       <c r="Z7" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA7" s="1"/>
       <c r="AB7" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
       </c>
       <c r="AC7" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="AD7" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
-        <v>95</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="AE7" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1200.0)</f>
-        <v>1200</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1700.0)</f>
+        <v>1700</v>
       </c>
       <c r="AF7" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
-        <v>1050</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
+        <v>1500</v>
       </c>
       <c r="AG7" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -1874,16 +1847,16 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1121250.0)</f>
-        <v>1121250</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),329201.0)</f>
+        <v>329201</v>
       </c>
       <c r="AK7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
-        <v>Más de 15 kms</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
+        <v>10 kms a 15 kms</v>
       </c>
       <c r="AL7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"06 551 a 800")</f>
-        <v>06 551 a 800</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"08 901 a 1,299")</f>
+        <v>08 901 a 1,299</v>
       </c>
       <c r="AM7" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0")</f>
@@ -1897,41 +1870,41 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2025.0)</f>
         <v>2025</v>
       </c>
-      <c r="AP7" s="3">
+      <c r="AP7" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
         <v>45778</v>
       </c>
-      <c r="AQ7" s="3">
+      <c r="AQ7" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
         <v>45775</v>
       </c>
       <c r="AR7" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45779.0)</f>
-        <v>45779</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45769.0)</f>
+        <v>45769</v>
       </c>
       <c r="AS7" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
-        <v>45778</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45748.0)</f>
+        <v>45748</v>
       </c>
       <c r="AT7" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
-        <v>45775</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45747.0)</f>
+        <v>45747</v>
       </c>
       <c r="AU7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
-        <v>13</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),22.0)</f>
+        <v>22</v>
       </c>
       <c r="AV7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
-        <v>OUTBOUND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
+        <v>DIGITAL</v>
       </c>
       <c r="AW7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
-        <v>OUTBOUND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIDIRECCIONAL")</f>
+        <v>BIDIRECCIONAL</v>
       </c>
       <c r="AX7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
-        <v>OUTBOUND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
+        <v>ORGANICO</v>
       </c>
       <c r="AY7" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -1946,33 +1919,27 @@
         <v>1</v>
       </c>
       <c r="BB7" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
-        <v>1050</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
+        <v>1500</v>
       </c>
       <c r="BC7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="BD7" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
         <v> -</v>
       </c>
       <c r="BE7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="BF7" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="BG7" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45815.0)</f>
-        <v>45815</v>
-      </c>
-      <c r="BH7" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45815.0)</f>
-        <v>45815</v>
-      </c>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
       <c r="BI7" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
@@ -1984,32 +1951,32 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5196494.0)</f>
-        <v>5196494</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2285717.0)</f>
+        <v>2285717</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000426098")</f>
-        <v>0000426098</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000425662")</f>
+        <v>0000425662</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAROLINA SOFIA ")</f>
-        <v>CAROLINA SOFIA </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ADRIANO JAVIER ")</f>
+        <v>ADRIANO JAVIER </v>
       </c>
       <c r="E8" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CESPEDES PALOMINO")</f>
-        <v>CESPEDES PALOMINO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAMIREZ FLORES")</f>
+        <v>RAMIREZ FLORES</v>
       </c>
       <c r="F8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.149368E7)</f>
-        <v>61493680</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.1545474E7)</f>
+        <v>61545474</v>
       </c>
       <c r="G8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.82358992E8)</f>
-        <v>982358992</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.66528972E8)</f>
+        <v>966528972</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"carolina.08.09.08.cp@gmail.com")</f>
-        <v>carolina.08.09.08.cp@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"adriano.ramirez2008@gmail.com")</f>
+        <v>adriano.ramirez2008@gmail.com</v>
       </c>
       <c r="I8" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
@@ -2040,53 +2007,50 @@
         <v>NUEVO</v>
       </c>
       <c r="P8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
-        <v>ESCALA REGULAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA")</f>
+        <v>BECA</v>
       </c>
       <c r="Q8" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA CARRERAS CORE")</f>
+        <v>BECA CARRERAS CORE</v>
+      </c>
+      <c r="R8" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
         <v>NINGUNO</v>
       </c>
-      <c r="R8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"50% DSCTO. PRIMERA BOLETA")</f>
-        <v>50% DSCTO. PRIMERA BOLETA</v>
-      </c>
       <c r="S8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRIGO")</f>
+        <v>RODRIGO</v>
       </c>
       <c r="T8" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45794.0)</f>
-        <v>45794</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45791.0)</f>
+        <v>45791</v>
       </c>
       <c r="U8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"POS")</f>
-        <v>POS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO LINK")</f>
+        <v>PAGO LINK</v>
       </c>
       <c r="V8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
-        <v>PAGO COMPLETO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
+        <v>PAGO FRACCIONADO</v>
       </c>
       <c r="W8" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
       <c r="X8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"15/05/2025")</f>
+        <v>15/05/2025</v>
       </c>
       <c r="Y8" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45794.0)</f>
-        <v>45794</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45792.0)</f>
+        <v>45792</v>
       </c>
       <c r="Z8" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA8" s="1"/>
       <c r="AB8" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
@@ -2100,12 +2064,12 @@
         <v>95</v>
       </c>
       <c r="AE8" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1350.0)</f>
-        <v>1350</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1200.0)</f>
+        <v>1200</v>
       </c>
       <c r="AF8" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1350.0)</f>
-        <v>1350</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
       </c>
       <c r="AG8" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -2120,16 +2084,16 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1502277.0)</f>
-        <v>1502277</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1121250.0)</f>
+        <v>1121250</v>
       </c>
       <c r="AK8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
-        <v>10 kms a 15 kms</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
+        <v>Más de 15 kms</v>
       </c>
       <c r="AL8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"05 301 a 550")</f>
-        <v>05 301 a 550</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"06 551 a 800")</f>
+        <v>06 551 a 800</v>
       </c>
       <c r="AM8" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0")</f>
@@ -2143,17 +2107,17 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2025.0)</f>
         <v>2025</v>
       </c>
-      <c r="AP8" s="3">
+      <c r="AP8" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
         <v>45778</v>
       </c>
-      <c r="AQ8" s="3">
+      <c r="AQ8" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
         <v>45775</v>
       </c>
       <c r="AR8" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45791.0)</f>
-        <v>45791</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45779.0)</f>
+        <v>45779</v>
       </c>
       <c r="AS8" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -2164,8 +2128,8 @@
         <v>45775</v>
       </c>
       <c r="AU8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
+        <v>13</v>
       </c>
       <c r="AV8" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
@@ -2192,8 +2156,8 @@
         <v>1</v>
       </c>
       <c r="BB8" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1215.0)</f>
-        <v>1215</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1050.0)</f>
+        <v>1050</v>
       </c>
       <c r="BC8" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -2230,40 +2194,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5212125.0)</f>
-        <v>5212125</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5196494.0)</f>
+        <v>5196494</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000426581")</f>
-        <v>0000426581</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000426098")</f>
+        <v>0000426098</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VANNIA VIVIANA ")</f>
-        <v>VANNIA VIVIANA </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAROLINA SOFIA ")</f>
+        <v>CAROLINA SOFIA </v>
       </c>
       <c r="E9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SALINAS CHIPANA")</f>
-        <v>SALINAS CHIPANA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CESPEDES PALOMINO")</f>
+        <v>CESPEDES PALOMINO</v>
       </c>
       <c r="F9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.1357728E7)</f>
-        <v>71357728</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.149368E7)</f>
+        <v>61493680</v>
       </c>
       <c r="G9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.92823404E8)</f>
-        <v>992823404</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.82358992E8)</f>
+        <v>982358992</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"van.salinasch@gmail.com")</f>
-        <v>van.salinasch@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"carolina.08.09.08.cp@gmail.com")</f>
+        <v>carolina.08.09.08.cp@gmail.com</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura de Interiores")</f>
-        <v>Arquitectura de Interiores</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
+        <v>Comunicación Audiovisual y Cine</v>
       </c>
       <c r="J9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecturas")</f>
-        <v>Arquitecturas</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
+        <v>Comunicaciones</v>
       </c>
       <c r="K9" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
@@ -2286,12 +2250,12 @@
         <v>NUEVO</v>
       </c>
       <c r="P9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RECA")</f>
-        <v>RECA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
+        <v>ESCALA REGULAR</v>
       </c>
       <c r="Q9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RECATEGORIZACION")</f>
-        <v>RECATEGORIZACION</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
       </c>
       <c r="R9" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"50% DSCTO. PRIMERA BOLETA")</f>
@@ -2302,12 +2266,12 @@
         <v>-</v>
       </c>
       <c r="T9" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45799.0)</f>
-        <v>45799</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45794.0)</f>
+        <v>45794</v>
       </c>
       <c r="U9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO LINK")</f>
-        <v>PAGO LINK</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"POS")</f>
+        <v>POS</v>
       </c>
       <c r="V9" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
@@ -2322,17 +2286,14 @@
         <v>-</v>
       </c>
       <c r="Y9" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45799.0)</f>
-        <v>45799</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45794.0)</f>
+        <v>45794</v>
       </c>
       <c r="Z9" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA9" s="1"/>
       <c r="AB9" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
@@ -2346,8 +2307,8 @@
         <v>95</v>
       </c>
       <c r="AE9" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
-        <v>1500</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1350.0)</f>
+        <v>1350</v>
       </c>
       <c r="AF9" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1350.0)</f>
@@ -2366,12 +2327,12 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1734300.0)</f>
-        <v>1734300</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1502277.0)</f>
+        <v>1502277</v>
       </c>
       <c r="AK9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
-        <v>Más de 15 kms</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
+        <v>10 kms a 15 kms</v>
       </c>
       <c r="AL9" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"05 301 a 550")</f>
@@ -2389,17 +2350,17 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2025.0)</f>
         <v>2025</v>
       </c>
-      <c r="AP9" s="3">
+      <c r="AP9" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
         <v>45778</v>
       </c>
-      <c r="AQ9" s="3">
+      <c r="AQ9" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
         <v>45775</v>
       </c>
       <c r="AR9" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45798.0)</f>
-        <v>45798</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45791.0)</f>
+        <v>45791</v>
       </c>
       <c r="AS9" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -2410,8 +2371,8 @@
         <v>45775</v>
       </c>
       <c r="AU9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
       </c>
       <c r="AV9" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
@@ -2442,8 +2403,8 @@
         <v>1215</v>
       </c>
       <c r="BC9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BD9" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
@@ -2461,7 +2422,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45815.0)</f>
         <v>45815</v>
       </c>
-      <c r="BH9" s="1"/>
+      <c r="BH9" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45815.0)</f>
+        <v>45815</v>
+      </c>
       <c r="BI9" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
@@ -2473,40 +2437,40 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5126740.0)</f>
-        <v>5126740</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5212125.0)</f>
+        <v>5212125</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000427077")</f>
-        <v>0000427077</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000426581")</f>
+        <v>0000426581</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTEBAN SANTIAGO")</f>
-        <v>ESTEBAN SANTIAGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VANNIA VIVIANA ")</f>
+        <v>VANNIA VIVIANA </v>
       </c>
       <c r="E10" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GASTANADUI HEREDIA")</f>
-        <v>GASTANADUI HEREDIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SALINAS CHIPANA")</f>
+        <v>SALINAS CHIPANA</v>
       </c>
       <c r="F10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.1677488E7)</f>
-        <v>71677488</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.1357728E7)</f>
+        <v>71357728</v>
       </c>
       <c r="G10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.75535555E8)</f>
-        <v>975535555</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.92823404E8)</f>
+        <v>992823404</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"esteban1606.g.heredia@gmail.com")</f>
-        <v>esteban1606.g.heredia@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"van.salinasch@gmail.com")</f>
+        <v>van.salinasch@gmail.com</v>
       </c>
       <c r="I10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño Gráfico Publicitario")</f>
-        <v>Diseño Gráfico Publicitario</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura de Interiores")</f>
+        <v>Arquitectura de Interiores</v>
       </c>
       <c r="J10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño")</f>
-        <v>Diseño</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecturas")</f>
+        <v>Arquitecturas</v>
       </c>
       <c r="K10" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
@@ -2529,28 +2493,28 @@
         <v>NUEVO</v>
       </c>
       <c r="P10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
-        <v>ESCALA REGULAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RECA")</f>
+        <v>RECA</v>
       </c>
       <c r="Q10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
-        <v>NINGUNO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RECATEGORIZACION")</f>
+        <v>RECATEGORIZACION</v>
       </c>
       <c r="R10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
-        <v>NINGUNO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"50% DSCTO. PRIMERA BOLETA")</f>
+        <v>50% DSCTO. PRIMERA BOLETA</v>
       </c>
       <c r="S10" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
       </c>
       <c r="T10" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45804.0)</f>
-        <v>45804</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45799.0)</f>
+        <v>45799</v>
       </c>
       <c r="U10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
-        <v>CARGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO LINK")</f>
+        <v>PAGO LINK</v>
       </c>
       <c r="V10" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
@@ -2565,36 +2529,33 @@
         <v>-</v>
       </c>
       <c r="Y10" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45804.0)</f>
-        <v>45804</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45799.0)</f>
+        <v>45799</v>
       </c>
       <c r="Z10" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA10" s="1"/>
       <c r="AB10" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
       </c>
       <c r="AC10" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
-        <v>50</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
       <c r="AD10" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
         <v>95</v>
       </c>
       <c r="AE10" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1600.0)</f>
-        <v>1600</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
+        <v>1500</v>
       </c>
       <c r="AF10" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1600.0)</f>
-        <v>1600</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1350.0)</f>
+        <v>1350</v>
       </c>
       <c r="AG10" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -2609,16 +2570,16 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),329557.0)</f>
-        <v>329557</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1734300.0)</f>
+        <v>1734300</v>
       </c>
       <c r="AK10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
-        <v>10 kms a 15 kms</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
+        <v>Más de 15 kms</v>
       </c>
       <c r="AL10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"07 801 a 900")</f>
-        <v>07 801 a 900</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"05 301 a 550")</f>
+        <v>05 301 a 550</v>
       </c>
       <c r="AM10" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0")</f>
@@ -2632,17 +2593,17 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2025.0)</f>
         <v>2025</v>
       </c>
-      <c r="AP10" s="3">
+      <c r="AP10" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
         <v>45778</v>
       </c>
-      <c r="AQ10" s="3">
+      <c r="AQ10" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
         <v>45775</v>
       </c>
       <c r="AR10" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45804.0)</f>
-        <v>45804</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45798.0)</f>
+        <v>45798</v>
       </c>
       <c r="AS10" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -2653,8 +2614,8 @@
         <v>45775</v>
       </c>
       <c r="AU10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="AV10" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
@@ -2681,12 +2642,12 @@
         <v>1</v>
       </c>
       <c r="BB10" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1600.0)</f>
-        <v>1600</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1215.0)</f>
+        <v>1215</v>
       </c>
       <c r="BC10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="BD10" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
@@ -2704,10 +2665,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45815.0)</f>
         <v>45815</v>
       </c>
-      <c r="BH10" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45815.0)</f>
-        <v>45815</v>
-      </c>
+      <c r="BH10" s="1"/>
       <c r="BI10" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
@@ -2719,48 +2677,48 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5210779.0)</f>
-        <v>5210779</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5126740.0)</f>
+        <v>5126740</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000426964")</f>
-        <v>0000426964</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000427077")</f>
+        <v>0000427077</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUCYA VALERIA")</f>
-        <v>LUCYA VALERIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTEBAN SANTIAGO")</f>
+        <v>ESTEBAN SANTIAGO</v>
       </c>
       <c r="E11" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"QUISPE RODRIGUEZ")</f>
-        <v>QUISPE RODRIGUEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GASTANADUI HEREDIA")</f>
+        <v>GASTANADUI HEREDIA</v>
       </c>
       <c r="F11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.2591665E7)</f>
-        <v>72591665</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.1677488E7)</f>
+        <v>71677488</v>
       </c>
       <c r="G11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.40296595E8)</f>
-        <v>940296595</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.75535555E8)</f>
+        <v>975535555</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Valerialucya9@gmail.com")</f>
-        <v>Valerialucya9@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"esteban1606.g.heredia@gmail.com")</f>
+        <v>esteban1606.g.heredia@gmail.com</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
-        <v>Comunicación Audiovisual y Cine</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño Gráfico Publicitario")</f>
+        <v>Diseño Gráfico Publicitario</v>
       </c>
       <c r="J11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
-        <v>Comunicaciones</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño")</f>
+        <v>Diseño</v>
       </c>
       <c r="K11" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
         <v>Antigua</v>
       </c>
       <c r="L11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Ordinaria")</f>
-        <v>Admisión Ordinaria</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión de Alto Rendimiento")</f>
+        <v>Admisión de Alto Rendimiento</v>
       </c>
       <c r="M11" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
@@ -2775,12 +2733,12 @@
         <v>NUEVO</v>
       </c>
       <c r="P11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA")</f>
-        <v>BECA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
+        <v>ESCALA REGULAR</v>
       </c>
       <c r="Q11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA CARRERAS CORE")</f>
-        <v>BECA CARRERAS CORE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
       </c>
       <c r="R11" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
@@ -2791,34 +2749,34 @@
         <v>-</v>
       </c>
       <c r="T11" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45805.0)</f>
-        <v>45805</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45804.0)</f>
+        <v>45804</v>
       </c>
       <c r="U11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO LINK")</f>
-        <v>PAGO LINK</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
+        <v>CARGO</v>
       </c>
       <c r="V11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
-        <v>PAGO FRACCIONADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
       </c>
       <c r="W11" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),600.0)</f>
-        <v>600</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="X11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"20/06/2025")</f>
-        <v>20/06/2025</v>
-      </c>
-      <c r="Y11" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="Y11" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45804.0)</f>
+        <v>45804</v>
+      </c>
       <c r="Z11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
-        <v>PAGO FRACCIONADO</v>
-      </c>
-      <c r="AA11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
+      </c>
+      <c r="AA11" s="1"/>
       <c r="AB11" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
@@ -2832,12 +2790,12 @@
         <v>95</v>
       </c>
       <c r="AE11" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1400.0)</f>
-        <v>1400</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1600.0)</f>
+        <v>1600</v>
       </c>
       <c r="AF11" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1200.0)</f>
-        <v>1200</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1600.0)</f>
+        <v>1600</v>
       </c>
       <c r="AG11" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -2852,8 +2810,8 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1541911.0)</f>
-        <v>1541911</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),329557.0)</f>
+        <v>329557</v>
       </c>
       <c r="AK11" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
@@ -2875,17 +2833,17 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2025.0)</f>
         <v>2025</v>
       </c>
-      <c r="AP11" s="3">
+      <c r="AP11" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
         <v>45778</v>
       </c>
-      <c r="AQ11" s="3">
+      <c r="AQ11" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
         <v>45775</v>
       </c>
       <c r="AR11" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45798.0)</f>
-        <v>45798</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45804.0)</f>
+        <v>45804</v>
       </c>
       <c r="AS11" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -2896,55 +2854,61 @@
         <v>45775</v>
       </c>
       <c r="AU11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0)</f>
-        <v>7</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="AV11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
-        <v>DIGITAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
+        <v>OUTBOUND</v>
       </c>
       <c r="AW11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIDIRECCIONAL")</f>
-        <v>BIDIRECCIONAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
+        <v>OUTBOUND</v>
       </c>
       <c r="AX11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
-        <v>ORGANICO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
+        <v>OUTBOUND</v>
       </c>
       <c r="AY11" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="AZ11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Cinthia Mariella Orosco")</f>
-        <v>Cinthia Mariella Orosco</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Daniel Zapata")</f>
+        <v>Daniel Zapata</v>
       </c>
       <c r="BA11" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.5539033457249071)</f>
-        <v>0.5539033457</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BB11" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1200.0)</f>
-        <v>1200</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1600.0)</f>
+        <v>1600</v>
       </c>
       <c r="BC11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BD11" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
         <v> -</v>
       </c>
       <c r="BE11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF11" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="BG11" s="1"/>
-      <c r="BH11" s="1"/>
+      <c r="BG11" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45815.0)</f>
+        <v>45815</v>
+      </c>
+      <c r="BH11" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45815.0)</f>
+        <v>45815</v>
+      </c>
       <c r="BI11" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
@@ -2956,32 +2920,32 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5223837.0)</f>
-        <v>5223837</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5210779.0)</f>
+        <v>5210779</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000427094")</f>
-        <v>0000427094</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000426964")</f>
+        <v>0000426964</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEONELA SMITH ")</f>
-        <v>LEONELA SMITH </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUCYA VALERIA")</f>
+        <v>LUCYA VALERIA</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SONCCO BALDEON")</f>
-        <v>SONCCO BALDEON</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"QUISPE RODRIGUEZ")</f>
+        <v>QUISPE RODRIGUEZ</v>
       </c>
       <c r="F12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0630529E7)</f>
-        <v>60630529</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.2591665E7)</f>
+        <v>72591665</v>
       </c>
       <c r="G12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.7019605E8)</f>
-        <v>970196050</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.40296595E8)</f>
+        <v>940296595</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rinelabaldeon1@gmail.com")</f>
-        <v>rinelabaldeon1@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Valerialucya9@gmail.com")</f>
+        <v>Valerialucya9@gmail.com</v>
       </c>
       <c r="I12" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
@@ -3012,24 +2976,24 @@
         <v>NUEVO</v>
       </c>
       <c r="P12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
-        <v>ESCALA REGULAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA")</f>
+        <v>BECA</v>
       </c>
       <c r="Q12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
-        <v>NINGUNO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA CARRERAS CORE")</f>
+        <v>BECA CARRERAS CORE</v>
       </c>
       <c r="R12" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
         <v>NINGUNO</v>
       </c>
       <c r="S12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FABIOLA")</f>
-        <v>FABIOLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
       </c>
       <c r="T12" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45806.0)</f>
-        <v>45806</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45805.0)</f>
+        <v>45805</v>
       </c>
       <c r="U12" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO LINK")</f>
@@ -3040,8 +3004,8 @@
         <v>PAGO FRACCIONADO</v>
       </c>
       <c r="W12" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1125.0)</f>
-        <v>1125</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),600.0)</f>
+        <v>600</v>
       </c>
       <c r="X12" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"20/06/2025")</f>
@@ -3052,10 +3016,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
         <v>PAGO FRACCIONADO</v>
       </c>
-      <c r="AA12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA12" s="1"/>
       <c r="AB12" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
@@ -3069,12 +3030,12 @@
         <v>95</v>
       </c>
       <c r="AE12" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
-        <v>1500</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1400.0)</f>
+        <v>1400</v>
       </c>
       <c r="AF12" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
-        <v>1500</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1200.0)</f>
+        <v>1200</v>
       </c>
       <c r="AG12" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -3089,16 +3050,16 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),696963.0)</f>
-        <v>696963</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1541911.0)</f>
+        <v>1541911</v>
       </c>
       <c r="AK12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
-        <v>Más de 15 kms</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
+        <v>10 kms a 15 kms</v>
       </c>
       <c r="AL12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"05 301 a 550")</f>
-        <v>05 301 a 550</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"07 801 a 900")</f>
+        <v>07 801 a 900</v>
       </c>
       <c r="AM12" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0")</f>
@@ -3112,17 +3073,17 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2025.0)</f>
         <v>2025</v>
       </c>
-      <c r="AP12" s="3">
+      <c r="AP12" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
         <v>45778</v>
       </c>
-      <c r="AQ12" s="3">
+      <c r="AQ12" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
         <v>45775</v>
       </c>
       <c r="AR12" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
-        <v>45803</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45798.0)</f>
+        <v>45798</v>
       </c>
       <c r="AS12" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -3133,20 +3094,20 @@
         <v>45775</v>
       </c>
       <c r="AU12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0)</f>
+        <v>7</v>
       </c>
       <c r="AV12" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
         <v>DIGITAL</v>
       </c>
       <c r="AW12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FORMULARIO")</f>
-        <v>FORMULARIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIDIRECCIONAL")</f>
+        <v>BIDIRECCIONAL</v>
       </c>
       <c r="AX12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEARCH MARCA")</f>
-        <v>SEARCH MARCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
+        <v>ORGANICO</v>
       </c>
       <c r="AY12" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3157,12 +3118,12 @@
         <v>Cinthia Mariella Orosco</v>
       </c>
       <c r="BA12" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.3161094224924012)</f>
-        <v>0.3161094225</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.5539033457249071)</f>
+        <v>0.5539033457</v>
       </c>
       <c r="BB12" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
-        <v>1500</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1200.0)</f>
+        <v>1200</v>
       </c>
       <c r="BC12" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -3193,40 +3154,40 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3309142.0)</f>
-        <v>3309142</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5223837.0)</f>
+        <v>5223837</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000427318")</f>
-        <v>0000427318</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000427094")</f>
+        <v>0000427094</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARIA CLAUDIA")</f>
-        <v>MARIA CLAUDIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEONELA SMITH ")</f>
+        <v>LEONELA SMITH </v>
       </c>
       <c r="E13" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BEJARANO DAVILA")</f>
-        <v>BEJARANO DAVILA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SONCCO BALDEON")</f>
+        <v>SONCCO BALDEON</v>
       </c>
       <c r="F13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.1516154E7)</f>
-        <v>61516154</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0630529E7)</f>
+        <v>60630529</v>
       </c>
       <c r="G13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.93655979E8)</f>
-        <v>993655979</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.7019605E8)</f>
+        <v>970196050</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"maclauwu@gmail.com")</f>
-        <v>maclauwu@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rinelabaldeon1@gmail.com")</f>
+        <v>rinelabaldeon1@gmail.com</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura de Interiores")</f>
-        <v>Arquitectura de Interiores</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
+        <v>Comunicación Audiovisual y Cine</v>
       </c>
       <c r="J13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecturas")</f>
-        <v>Arquitecturas</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
+        <v>Comunicaciones</v>
       </c>
       <c r="K13" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
@@ -3261,8 +3222,8 @@
         <v>NINGUNO</v>
       </c>
       <c r="S13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FABIOLA")</f>
+        <v>FABIOLA</v>
       </c>
       <c r="T13" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45806.0)</f>
@@ -3277,22 +3238,19 @@
         <v>PAGO FRACCIONADO</v>
       </c>
       <c r="W13" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1595.0)</f>
-        <v>1595</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1125.0)</f>
+        <v>1125</v>
       </c>
       <c r="X13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"04/06/2025")</f>
-        <v>04/06/2025</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"20/06/2025")</f>
+        <v>20/06/2025</v>
       </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
         <v>PAGO FRACCIONADO</v>
       </c>
-      <c r="AA13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA13" s="1"/>
       <c r="AB13" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
@@ -3326,11 +3284,17 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),693614.0)</f>
-        <v>693614</v>
-      </c>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),696963.0)</f>
+        <v>696963</v>
+      </c>
+      <c r="AK13" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
+        <v>Más de 15 kms</v>
+      </c>
+      <c r="AL13" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"05 301 a 550")</f>
+        <v>05 301 a 550</v>
+      </c>
       <c r="AM13" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0")</f>
         <v>0</v>
@@ -3343,17 +3307,17 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2025.0)</f>
         <v>2025</v>
       </c>
-      <c r="AP13" s="3">
+      <c r="AP13" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
         <v>45778</v>
       </c>
-      <c r="AQ13" s="3">
+      <c r="AQ13" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
         <v>45775</v>
       </c>
       <c r="AR13" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45804.0)</f>
-        <v>45804</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
+        <v>45803</v>
       </c>
       <c r="AS13" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -3364,20 +3328,20 @@
         <v>45775</v>
       </c>
       <c r="AU13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
       </c>
       <c r="AV13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRADICIONAL")</f>
-        <v>TRADICIONAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
+        <v>DIGITAL</v>
       </c>
       <c r="AW13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COLEGIOS")</f>
-        <v>COLEGIOS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FORMULARIO")</f>
+        <v>FORMULARIO</v>
       </c>
       <c r="AX13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COLEGIOS")</f>
-        <v>COLEGIOS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEARCH MARCA")</f>
+        <v>SEARCH MARCA</v>
       </c>
       <c r="AY13" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3388,8 +3352,8 @@
         <v>Cinthia Mariella Orosco</v>
       </c>
       <c r="BA13" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.030395136778115502)</f>
-        <v>0.03039513678</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.3161094224924012)</f>
+        <v>0.3161094225</v>
       </c>
       <c r="BB13" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
@@ -3424,40 +3388,40 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5220457.0)</f>
-        <v>5220457</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3309142.0)</f>
+        <v>3309142</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000427368")</f>
-        <v>0000427368</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000427318")</f>
+        <v>0000427318</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOMÉNICA PAOLA ")</f>
-        <v>DOMÉNICA PAOLA </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARIA CLAUDIA")</f>
+        <v>MARIA CLAUDIA</v>
       </c>
       <c r="E14" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GÓMEZ ORÉ")</f>
-        <v>GÓMEZ ORÉ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BEJARANO DAVILA")</f>
+        <v>BEJARANO DAVILA</v>
       </c>
       <c r="F14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.1684165E7)</f>
-        <v>71684165</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.1516154E7)</f>
+        <v>61516154</v>
       </c>
       <c r="G14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.08559699E8)</f>
-        <v>908559699</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.93655979E8)</f>
+        <v>993655979</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Domenicapaolagomezore@gmail.com")</f>
-        <v>Domenicapaolagomezore@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"maclauwu@gmail.com")</f>
+        <v>maclauwu@gmail.com</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
-        <v>Comunicación Audiovisual y Cine</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura de Interiores")</f>
+        <v>Arquitectura de Interiores</v>
       </c>
       <c r="J14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
-        <v>Comunicaciones</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecturas")</f>
+        <v>Arquitecturas</v>
       </c>
       <c r="K14" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
@@ -3488,45 +3452,39 @@
         <v>NINGUNO</v>
       </c>
       <c r="R14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pago BBVA")</f>
-        <v>Pago BBVA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
       </c>
       <c r="S14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FABIOLA")</f>
-        <v>FABIOLA</v>
-      </c>
-      <c r="T14" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45807.0)</f>
-        <v>45807</v>
-      </c>
-      <c r="U14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pago Link")</f>
-        <v>Pago Link</v>
-      </c>
-      <c r="V14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
-        <v>PAGO COMPLETO</v>
-      </c>
-      <c r="W14" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="X14" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
       </c>
-      <c r="Y14" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45807.0)</f>
-        <v>45807</v>
-      </c>
+      <c r="T14" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45806.0)</f>
+        <v>45806</v>
+      </c>
+      <c r="U14" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO LINK")</f>
+        <v>PAGO LINK</v>
+      </c>
+      <c r="V14" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
+        <v>PAGO FRACCIONADO</v>
+      </c>
+      <c r="W14" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1595.0)</f>
+        <v>1595</v>
+      </c>
+      <c r="X14" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"04/06/2025")</f>
+        <v>04/06/2025</v>
+      </c>
+      <c r="Y14" s="1"/>
       <c r="Z14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
-        <v>PAGO COMPLETO</v>
-      </c>
-      <c r="AA14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
+        <v>PAGO FRACCIONADO</v>
+      </c>
+      <c r="AA14" s="1"/>
       <c r="AB14" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
@@ -3560,17 +3518,11 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),500249.0)</f>
-        <v>500249</v>
-      </c>
-      <c r="AK14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
-        <v>10 kms a 15 kms</v>
-      </c>
-      <c r="AL14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"06 551 a 800")</f>
-        <v>06 551 a 800</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),693614.0)</f>
+        <v>693614</v>
+      </c>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
       <c r="AM14" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0")</f>
         <v>0</v>
@@ -3583,17 +3535,17 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2025.0)</f>
         <v>2025</v>
       </c>
-      <c r="AP14" s="3">
+      <c r="AP14" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
         <v>45778</v>
       </c>
-      <c r="AQ14" s="3">
+      <c r="AQ14" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
         <v>45775</v>
       </c>
       <c r="AR14" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45801.0)</f>
-        <v>45801</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45804.0)</f>
+        <v>45804</v>
       </c>
       <c r="AS14" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -3604,20 +3556,20 @@
         <v>45775</v>
       </c>
       <c r="AU14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0)</f>
-        <v>6</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
       <c r="AV14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
-        <v>DIGITAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRADICIONAL")</f>
+        <v>TRADICIONAL</v>
       </c>
       <c r="AW14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIDIRECCIONAL")</f>
-        <v>BIDIRECCIONAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COLEGIOS")</f>
+        <v>COLEGIOS</v>
       </c>
       <c r="AX14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
-        <v>ORGANICO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COLEGIOS")</f>
+        <v>COLEGIOS</v>
       </c>
       <c r="AY14" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3628,8 +3580,8 @@
         <v>Cinthia Mariella Orosco</v>
       </c>
       <c r="BA14" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.030395136778115502)</f>
+        <v>0.03039513678</v>
       </c>
       <c r="BB14" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
@@ -3664,40 +3616,40 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4534883.0)</f>
-        <v>4534883</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5220457.0)</f>
+        <v>5220457</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000427439")</f>
-        <v>0000427439</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000427368")</f>
+        <v>0000427368</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS ANGEL")</f>
-        <v>LUIS ANGEL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOMÉNICA PAOLA ")</f>
+        <v>DOMÉNICA PAOLA </v>
       </c>
       <c r="E15" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OSVEN ARANDA")</f>
-        <v>OSVEN ARANDA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GÓMEZ ORÉ")</f>
+        <v>GÓMEZ ORÉ</v>
       </c>
       <c r="F15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.1259267E7)</f>
-        <v>41259267</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.1684165E7)</f>
+        <v>71684165</v>
       </c>
       <c r="G15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.18851982E8)</f>
-        <v>918851982</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.08559699E8)</f>
+        <v>908559699</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"osven.sac@gmail.com")</f>
-        <v>osven.sac@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Domenicapaolagomezore@gmail.com")</f>
+        <v>Domenicapaolagomezore@gmail.com</v>
       </c>
       <c r="I15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura")</f>
-        <v>Arquitectura</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
+        <v>Comunicación Audiovisual y Cine</v>
       </c>
       <c r="J15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecturas")</f>
-        <v>Arquitecturas</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
+        <v>Comunicaciones</v>
       </c>
       <c r="K15" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
@@ -3728,20 +3680,20 @@
         <v>NINGUNO</v>
       </c>
       <c r="R15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
-        <v>NINGUNO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pago BBVA")</f>
+        <v>Pago BBVA</v>
       </c>
       <c r="S15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FABIOLA")</f>
+        <v>FABIOLA</v>
       </c>
       <c r="T15" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45807.0)</f>
         <v>45807</v>
       </c>
       <c r="U15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"POS")</f>
-        <v>POS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pago Link")</f>
+        <v>Pago Link</v>
       </c>
       <c r="V15" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
@@ -3763,29 +3715,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA15" s="1"/>
       <c r="AB15" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
       </c>
       <c r="AC15" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
+        <v>50</v>
       </c>
       <c r="AD15" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
+        <v>95</v>
       </c>
       <c r="AE15" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
-        <v>850</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
+        <v>1500</v>
       </c>
       <c r="AF15" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
-        <v>850</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
+        <v>1500</v>
       </c>
       <c r="AG15" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -3800,11 +3749,17 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),500249.0)</f>
+        <v>500249</v>
+      </c>
+      <c r="AK15" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
+        <v>10 kms a 15 kms</v>
+      </c>
+      <c r="AL15" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"06 551 a 800")</f>
+        <v>06 551 a 800</v>
+      </c>
       <c r="AM15" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0")</f>
         <v>0</v>
@@ -3814,14 +3769,14 @@
         <v> -</v>
       </c>
       <c r="AO15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1998.0)</f>
-        <v>1998</v>
-      </c>
-      <c r="AP15" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2025.0)</f>
+        <v>2025</v>
+      </c>
+      <c r="AP15" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
         <v>45778</v>
       </c>
-      <c r="AQ15" s="3">
+      <c r="AQ15" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
         <v>45775</v>
       </c>
@@ -3858,16 +3813,16 @@
         <v>1</v>
       </c>
       <c r="AZ15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Meri Ricalde")</f>
-        <v>Meri Ricalde</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Cinthia Mariella Orosco")</f>
+        <v>Cinthia Mariella Orosco</v>
       </c>
       <c r="BA15" s="6">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BB15" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
-        <v>850</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
+        <v>1500</v>
       </c>
       <c r="BC15" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -3898,48 +3853,48 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1478516.0)</f>
-        <v>1478516</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4534883.0)</f>
+        <v>4534883</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000427548")</f>
-        <v>0000427548</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000427439")</f>
+        <v>0000427439</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JADE ALESSANDRA ")</f>
-        <v>JADE ALESSANDRA </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS ANGEL")</f>
+        <v>LUIS ANGEL</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUAMANI CALDERON")</f>
-        <v>HUAMANI CALDERON</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OSVEN ARANDA")</f>
+        <v>OSVEN ARANDA</v>
       </c>
       <c r="F16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.2064162E7)</f>
-        <v>72064162</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.1259267E7)</f>
+        <v>41259267</v>
       </c>
       <c r="G16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.84124408E8)</f>
-        <v>984124408</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.18851982E8)</f>
+        <v>918851982</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jade.iiriss@gmail.com")</f>
-        <v>jade.iiriss@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"osven.sac@gmail.com")</f>
+        <v>osven.sac@gmail.com</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
-        <v>Comunicación Audiovisual y Cine</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura")</f>
+        <v>Arquitectura</v>
       </c>
       <c r="J16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
-        <v>Comunicaciones</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecturas")</f>
+        <v>Arquitecturas</v>
       </c>
       <c r="K16" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
         <v>Antigua</v>
       </c>
       <c r="L16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión de Alto Rendimiento")</f>
-        <v>Admisión de Alto Rendimiento</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Ordinaria")</f>
+        <v>Admisión Ordinaria</v>
       </c>
       <c r="M16" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
@@ -3962,20 +3917,20 @@
         <v>NINGUNO</v>
       </c>
       <c r="R16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"50% DSCTO. PRIMERA BOLETA")</f>
-        <v>50% DSCTO. PRIMERA BOLETA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
       </c>
       <c r="S16" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
       </c>
       <c r="T16" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45808.0)</f>
-        <v>45808</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45807.0)</f>
+        <v>45807</v>
       </c>
       <c r="U16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
-        <v>CARGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"POS")</f>
+        <v>POS</v>
       </c>
       <c r="V16" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
@@ -3990,36 +3945,33 @@
         <v>-</v>
       </c>
       <c r="Y16" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45808.0)</f>
-        <v>45808</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45807.0)</f>
+        <v>45807</v>
       </c>
       <c r="Z16" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA16" s="1"/>
       <c r="AB16" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
       </c>
       <c r="AC16" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="AD16" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
-        <v>95</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="AE16" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
-        <v>1500</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
+        <v>850</v>
       </c>
       <c r="AF16" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
-        <v>1500</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
+        <v>850</v>
       </c>
       <c r="AG16" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -4034,17 +3986,11 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1640671.0)</f>
-        <v>1640671</v>
-      </c>
-      <c r="AK16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"5kms a 10 kms")</f>
-        <v>5kms a 10 kms</v>
-      </c>
-      <c r="AL16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"06 551 a 800")</f>
-        <v>06 551 a 800</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
       <c r="AM16" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0")</f>
         <v>0</v>
@@ -4054,60 +4000,60 @@
         <v> -</v>
       </c>
       <c r="AO16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2025.0)</f>
-        <v>2025</v>
-      </c>
-      <c r="AP16" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1998.0)</f>
+        <v>1998</v>
+      </c>
+      <c r="AP16" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
         <v>45778</v>
       </c>
-      <c r="AQ16" s="3">
+      <c r="AQ16" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
         <v>45775</v>
       </c>
       <c r="AR16" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45762.0)</f>
-        <v>45762</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45801.0)</f>
+        <v>45801</v>
       </c>
       <c r="AS16" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45748.0)</f>
-        <v>45748</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
+        <v>45778</v>
       </c>
       <c r="AT16" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45747.0)</f>
-        <v>45747</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
+        <v>45775</v>
       </c>
       <c r="AU16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
-        <v>46</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0)</f>
+        <v>6</v>
       </c>
       <c r="AV16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRADICIONAL")</f>
-        <v>TRADICIONAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
+        <v>DIGITAL</v>
       </c>
       <c r="AW16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VISITA")</f>
-        <v>VISITA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIDIRECCIONAL")</f>
+        <v>BIDIRECCIONAL</v>
       </c>
       <c r="AX16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VISITA")</f>
-        <v>VISITA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
+        <v>ORGANICO</v>
       </c>
       <c r="AY16" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="AZ16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Daniel Zapata")</f>
-        <v>Daniel Zapata</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Meri Ricalde")</f>
+        <v>Meri Ricalde</v>
       </c>
       <c r="BA16" s="6">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BB16" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1350.0)</f>
-        <v>1350</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
+        <v>850</v>
       </c>
       <c r="BC16" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -4118,17 +4064,14 @@
         <v> -</v>
       </c>
       <c r="BE16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="BF16" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="BG16" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45815.0)</f>
-        <v>45815</v>
-      </c>
+      <c r="BG16" s="1"/>
       <c r="BH16" s="1"/>
       <c r="BI16" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
@@ -4141,44 +4084,44 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5228770.0)</f>
-        <v>5228770</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1478516.0)</f>
+        <v>1478516</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000427599")</f>
-        <v>0000427599</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000427548")</f>
+        <v>0000427548</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS MIGUEL ANTHONY ")</f>
-        <v>LUIS MIGUEL ANTHONY </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JADE ALESSANDRA ")</f>
+        <v>JADE ALESSANDRA </v>
       </c>
       <c r="E17" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TARRILLO BARBOZA")</f>
-        <v>TARRILLO BARBOZA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUAMANI CALDERON")</f>
+        <v>HUAMANI CALDERON</v>
       </c>
       <c r="F17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.3162077E7)</f>
-        <v>73162077</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.2064162E7)</f>
+        <v>72064162</v>
       </c>
       <c r="G17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.16083982E8)</f>
-        <v>916083982</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.84124408E8)</f>
+        <v>984124408</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"anthonytb335@gmail.com")</f>
-        <v>anthonytb335@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jade.iiriss@gmail.com")</f>
+        <v>jade.iiriss@gmail.com</v>
       </c>
       <c r="I17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Administración y Negocios Internacionales")</f>
-        <v>Administración y Negocios Internacionales</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
+        <v>Comunicación Audiovisual y Cine</v>
       </c>
       <c r="J17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Negocios")</f>
-        <v>Negocios</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
+        <v>Comunicaciones</v>
       </c>
       <c r="K17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nueva")</f>
-        <v>Nueva</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
+        <v>Antigua</v>
       </c>
       <c r="L17" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión de Alto Rendimiento")</f>
@@ -4213,8 +4156,8 @@
         <v>-</v>
       </c>
       <c r="T17" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
-        <v>45809</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45808.0)</f>
+        <v>45808</v>
       </c>
       <c r="U17" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
@@ -4233,36 +4176,33 @@
         <v>-</v>
       </c>
       <c r="Y17" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
-        <v>45809</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45808.0)</f>
+        <v>45808</v>
       </c>
       <c r="Z17" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA17" s="1"/>
       <c r="AB17" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
       </c>
       <c r="AC17" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
-        <v>50</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
       <c r="AD17" s="4">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
         <v>95</v>
       </c>
       <c r="AE17" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1350.0)</f>
-        <v>1350</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
+        <v>1500</v>
       </c>
       <c r="AF17" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1350.0)</f>
-        <v>1350</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
+        <v>1500</v>
       </c>
       <c r="AG17" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -4277,16 +4217,16 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1507789.0)</f>
-        <v>1507789</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1640671.0)</f>
+        <v>1640671</v>
       </c>
       <c r="AK17" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"5kms a 10 kms")</f>
         <v>5kms a 10 kms</v>
       </c>
       <c r="AL17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"05 301 a 550")</f>
-        <v>05 301 a 550</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"06 551 a 800")</f>
+        <v>06 551 a 800</v>
       </c>
       <c r="AM17" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0")</f>
@@ -4300,41 +4240,41 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2025.0)</f>
         <v>2025</v>
       </c>
-      <c r="AP17" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
-        <v>45809</v>
-      </c>
-      <c r="AQ17" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
-        <v>45803</v>
-      </c>
-      <c r="AR17" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45806.0)</f>
-        <v>45806</v>
-      </c>
-      <c r="AS17" s="5">
+      <c r="AP17" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
         <v>45778</v>
       </c>
-      <c r="AT17" s="5">
+      <c r="AQ17" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
         <v>45775</v>
       </c>
+      <c r="AR17" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45762.0)</f>
+        <v>45762</v>
+      </c>
+      <c r="AS17" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45748.0)</f>
+        <v>45748</v>
+      </c>
+      <c r="AT17" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45747.0)</f>
+        <v>45747</v>
+      </c>
       <c r="AU17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
+        <v>46</v>
       </c>
       <c r="AV17" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRADICIONAL")</f>
         <v>TRADICIONAL</v>
       </c>
       <c r="AW17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COLEGIOS")</f>
-        <v>COLEGIOS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VISITA")</f>
+        <v>VISITA</v>
       </c>
       <c r="AX17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COLEGIOS")</f>
-        <v>COLEGIOS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VISITA")</f>
+        <v>VISITA</v>
       </c>
       <c r="AY17" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4349,8 +4289,8 @@
         <v>1</v>
       </c>
       <c r="BB17" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1215.0)</f>
-        <v>1215</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1350.0)</f>
+        <v>1350</v>
       </c>
       <c r="BC17" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -4384,44 +4324,44 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4560562.0)</f>
-        <v>4560562</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5228770.0)</f>
+        <v>5228770</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000427857")</f>
-        <v>0000427857</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000427599")</f>
+        <v>0000427599</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TAMARA MONSERAT")</f>
-        <v>TAMARA MONSERAT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS MIGUEL ANTHONY ")</f>
+        <v>LUIS MIGUEL ANTHONY </v>
       </c>
       <c r="E18" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARRASCO HORNA")</f>
-        <v>CARRASCO HORNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TARRILLO BARBOZA")</f>
+        <v>TARRILLO BARBOZA</v>
       </c>
       <c r="F18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.1933923E7)</f>
-        <v>61933923</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.3162077E7)</f>
+        <v>73162077</v>
       </c>
       <c r="G18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.46577974E8)</f>
-        <v>946577974</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.16083982E8)</f>
+        <v>916083982</v>
       </c>
       <c r="H18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"tamaracarrascohorna@gmail.com")</f>
-        <v>tamaracarrascohorna@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"anthonytb335@gmail.com")</f>
+        <v>anthonytb335@gmail.com</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura de Interiores")</f>
-        <v>Arquitectura de Interiores</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Administración y Negocios Internacionales")</f>
+        <v>Administración y Negocios Internacionales</v>
       </c>
       <c r="J18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecturas")</f>
-        <v>Arquitecturas</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Negocios")</f>
+        <v>Negocios</v>
       </c>
       <c r="K18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
-        <v>Antigua</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Nueva")</f>
+        <v>Nueva</v>
       </c>
       <c r="L18" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión de Alto Rendimiento")</f>
@@ -4456,12 +4396,12 @@
         <v>-</v>
       </c>
       <c r="T18" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45812.0)</f>
-        <v>45812</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
+        <v>45809</v>
       </c>
       <c r="U18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"POS")</f>
-        <v>POS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
+        <v>CARGO</v>
       </c>
       <c r="V18" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
@@ -4476,17 +4416,14 @@
         <v>-</v>
       </c>
       <c r="Y18" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45812.0)</f>
-        <v>45812</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
+        <v>45809</v>
       </c>
       <c r="Z18" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA18" s="1"/>
       <c r="AB18" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
@@ -4500,12 +4437,12 @@
         <v>95</v>
       </c>
       <c r="AE18" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
-        <v>1500</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1350.0)</f>
+        <v>1350</v>
       </c>
       <c r="AF18" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
-        <v>1500</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1350.0)</f>
+        <v>1350</v>
       </c>
       <c r="AG18" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -4520,11 +4457,17 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1509751.0)</f>
-        <v>1509751</v>
-      </c>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1507789.0)</f>
+        <v>1507789</v>
+      </c>
+      <c r="AK18" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"5kms a 10 kms")</f>
+        <v>5kms a 10 kms</v>
+      </c>
+      <c r="AL18" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"05 301 a 550")</f>
+        <v>05 301 a 550</v>
+      </c>
       <c r="AM18" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0")</f>
         <v>0</v>
@@ -4537,17 +4480,17 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2025.0)</f>
         <v>2025</v>
       </c>
-      <c r="AP18" s="3">
+      <c r="AP18" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
         <v>45809</v>
       </c>
-      <c r="AQ18" s="3">
+      <c r="AQ18" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
         <v>45803</v>
       </c>
       <c r="AR18" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45802.0)</f>
-        <v>45802</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45806.0)</f>
+        <v>45806</v>
       </c>
       <c r="AS18" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -4558,8 +4501,8 @@
         <v>45775</v>
       </c>
       <c r="AU18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
-        <v>10</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
       </c>
       <c r="AV18" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRADICIONAL")</f>
@@ -4586,8 +4529,8 @@
         <v>1</v>
       </c>
       <c r="BB18" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1350.0)</f>
-        <v>1350</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1215.0)</f>
+        <v>1215</v>
       </c>
       <c r="BC18" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -4598,14 +4541,17 @@
         <v> -</v>
       </c>
       <c r="BE18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF18" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="BG18" s="1"/>
+      <c r="BG18" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45815.0)</f>
+        <v>45815</v>
+      </c>
       <c r="BH18" s="1"/>
       <c r="BI18" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
@@ -4618,32 +4564,32 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2429874.0)</f>
-        <v>2429874</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4560562.0)</f>
+        <v>4560562</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000061985")</f>
-        <v>0000061985</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000427857")</f>
+        <v>0000427857</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIANCA LETICIA ")</f>
-        <v>BIANCA LETICIA </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TAMARA MONSERAT")</f>
+        <v>TAMARA MONSERAT</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ZAMALLOA TRIVEÑO")</f>
-        <v>ZAMALLOA TRIVEÑO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARRASCO HORNA")</f>
+        <v>CARRASCO HORNA</v>
       </c>
       <c r="F19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.3165759E7)</f>
-        <v>73165759</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.1933923E7)</f>
+        <v>61933923</v>
       </c>
       <c r="G19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.99408375E8)</f>
-        <v>999408375</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.46577974E8)</f>
+        <v>946577974</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"biancazamat@gmail.com")</f>
-        <v>biancazamat@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"tamaracarrascohorna@gmail.com")</f>
+        <v>tamaracarrascohorna@gmail.com</v>
       </c>
       <c r="I19" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura de Interiores")</f>
@@ -4690,12 +4636,12 @@
         <v>-</v>
       </c>
       <c r="T19" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45813.0)</f>
-        <v>45813</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45812.0)</f>
+        <v>45812</v>
       </c>
       <c r="U19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
-        <v>CARGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"POS")</f>
+        <v>POS</v>
       </c>
       <c r="V19" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
@@ -4710,17 +4656,14 @@
         <v>-</v>
       </c>
       <c r="Y19" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45813.0)</f>
-        <v>45813</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45812.0)</f>
+        <v>45812</v>
       </c>
       <c r="Z19" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA19" s="1"/>
       <c r="AB19" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
@@ -4734,12 +4677,12 @@
         <v>95</v>
       </c>
       <c r="AE19" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1250.0)</f>
-        <v>1250</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
+        <v>1500</v>
       </c>
       <c r="AF19" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1250.0)</f>
-        <v>1250</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
+        <v>1500</v>
       </c>
       <c r="AG19" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -4754,8 +4697,8 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325639.0)</f>
-        <v>325639</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1509751.0)</f>
+        <v>1509751</v>
       </c>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
@@ -4771,17 +4714,17 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2025.0)</f>
         <v>2025</v>
       </c>
-      <c r="AP19" s="3">
+      <c r="AP19" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
         <v>45809</v>
       </c>
-      <c r="AQ19" s="3">
+      <c r="AQ19" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
         <v>45803</v>
       </c>
       <c r="AR19" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
-        <v>45803</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45802.0)</f>
+        <v>45802</v>
       </c>
       <c r="AS19" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -4820,8 +4763,8 @@
         <v>1</v>
       </c>
       <c r="BB19" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1125.0)</f>
-        <v>1125</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1350.0)</f>
+        <v>1350</v>
       </c>
       <c r="BC19" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -4852,48 +4795,48 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5003358.0)</f>
-        <v>5003358</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2429874.0)</f>
+        <v>2429874</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000427858")</f>
-        <v>0000427858</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000061985")</f>
+        <v>0000061985</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARIADNA ")</f>
-        <v>ARIADNA </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIANCA LETICIA ")</f>
+        <v>BIANCA LETICIA </v>
       </c>
       <c r="E20" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SALAS LOZADA")</f>
-        <v>SALAS LOZADA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ZAMALLOA TRIVEÑO")</f>
+        <v>ZAMALLOA TRIVEÑO</v>
       </c>
       <c r="F20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.1669916E7)</f>
-        <v>71669916</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.3165759E7)</f>
+        <v>73165759</v>
       </c>
       <c r="G20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.32895414E8)</f>
-        <v>932895414</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.99408375E8)</f>
+        <v>999408375</v>
       </c>
       <c r="H20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ariadnasalas1008@gmail.com")</f>
-        <v>ariadnasalas1008@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"biancazamat@gmail.com")</f>
+        <v>biancazamat@gmail.com</v>
       </c>
       <c r="I20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño Gráfico Publicitario")</f>
-        <v>Diseño Gráfico Publicitario</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura de Interiores")</f>
+        <v>Arquitectura de Interiores</v>
       </c>
       <c r="J20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño")</f>
-        <v>Diseño</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecturas")</f>
+        <v>Arquitecturas</v>
       </c>
       <c r="K20" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
         <v>Antigua</v>
       </c>
       <c r="L20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Ordinaria")</f>
-        <v>Admisión Ordinaria</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión de Alto Rendimiento")</f>
+        <v>Admisión de Alto Rendimiento</v>
       </c>
       <c r="M20" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
@@ -4908,20 +4851,20 @@
         <v>NUEVO</v>
       </c>
       <c r="P20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA")</f>
-        <v>BECA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
+        <v>ESCALA REGULAR</v>
       </c>
       <c r="Q20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA DGP")</f>
-        <v>BECA DGP</v>
-      </c>
-      <c r="R20" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
         <v>NINGUNO</v>
       </c>
+      <c r="R20" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"50% DSCTO. PRIMERA BOLETA")</f>
+        <v>50% DSCTO. PRIMERA BOLETA</v>
+      </c>
       <c r="S20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FABIOLA")</f>
-        <v>FABIOLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
       </c>
       <c r="T20" s="3">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45813.0)</f>
@@ -4951,10 +4894,7 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA20" s="1"/>
       <c r="AB20" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
@@ -4968,12 +4908,12 @@
         <v>95</v>
       </c>
       <c r="AE20" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1600.0)</f>
-        <v>1600</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1250.0)</f>
+        <v>1250</v>
       </c>
       <c r="AF20" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1440.0)</f>
-        <v>1440</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1250.0)</f>
+        <v>1250</v>
       </c>
       <c r="AG20" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -4988,17 +4928,11 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),588905.0)</f>
-        <v>588905</v>
-      </c>
-      <c r="AK20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
-        <v>10 kms a 15 kms</v>
-      </c>
-      <c r="AL20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"06 551 a 800")</f>
-        <v>06 551 a 800</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325639.0)</f>
+        <v>325639</v>
+      </c>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
       <c r="AM20" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0")</f>
         <v>0</v>
@@ -5011,17 +4945,17 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2025.0)</f>
         <v>2025</v>
       </c>
-      <c r="AP20" s="3">
+      <c r="AP20" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
         <v>45809</v>
       </c>
-      <c r="AQ20" s="3">
+      <c r="AQ20" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
         <v>45803</v>
       </c>
       <c r="AR20" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45804.0)</f>
-        <v>45804</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
+        <v>45803</v>
       </c>
       <c r="AS20" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -5032,36 +4966,36 @@
         <v>45775</v>
       </c>
       <c r="AU20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
-        <v>9</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
+        <v>10</v>
       </c>
       <c r="AV20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
-        <v>DIGITAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRADICIONAL")</f>
+        <v>TRADICIONAL</v>
       </c>
       <c r="AW20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIDIRECCIONAL")</f>
-        <v>BIDIRECCIONAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COLEGIOS")</f>
+        <v>COLEGIOS</v>
       </c>
       <c r="AX20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
-        <v>ORGANICO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COLEGIOS")</f>
+        <v>COLEGIOS</v>
       </c>
       <c r="AY20" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="AZ20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Cinthia Mariella Orosco")</f>
-        <v>Cinthia Mariella Orosco</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Daniel Zapata")</f>
+        <v>Daniel Zapata</v>
       </c>
       <c r="BA20" s="6">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BB20" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1440.0)</f>
-        <v>1440</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1125.0)</f>
+        <v>1125</v>
       </c>
       <c r="BC20" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -5092,48 +5026,48 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4644125.0)</f>
-        <v>4644125</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5003358.0)</f>
+        <v>5003358</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000428184")</f>
-        <v>0000428184</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000427858")</f>
+        <v>0000427858</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARIAN GABRIEL ")</f>
-        <v>ARIAN GABRIEL </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARIADNA ")</f>
+        <v>ARIADNA </v>
       </c>
       <c r="E21" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRANCO ALARCON")</f>
-        <v>FRANCO ALARCON</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SALAS LOZADA")</f>
+        <v>SALAS LOZADA</v>
       </c>
       <c r="F21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.2586436E7)</f>
-        <v>72586436</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.1669916E7)</f>
+        <v>71669916</v>
       </c>
       <c r="G21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.18246384E8)</f>
-        <v>918246384</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.32895414E8)</f>
+        <v>932895414</v>
       </c>
       <c r="H21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jennyalarcon183@gmail.com")</f>
-        <v>jennyalarcon183@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ariadnasalas1008@gmail.com")</f>
+        <v>ariadnasalas1008@gmail.com</v>
       </c>
       <c r="I21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
-        <v>Comunicación Audiovisual y Cine</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño Gráfico Publicitario")</f>
+        <v>Diseño Gráfico Publicitario</v>
       </c>
       <c r="J21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
-        <v>Comunicaciones</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño")</f>
+        <v>Diseño</v>
       </c>
       <c r="K21" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
         <v>Antigua</v>
       </c>
       <c r="L21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión de Alto Rendimiento")</f>
-        <v>Admisión de Alto Rendimiento</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Ordinaria")</f>
+        <v>Admisión Ordinaria</v>
       </c>
       <c r="M21" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
@@ -5148,28 +5082,28 @@
         <v>NUEVO</v>
       </c>
       <c r="P21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
-        <v>ESCALA REGULAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA")</f>
+        <v>BECA</v>
       </c>
       <c r="Q21" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA DGP")</f>
+        <v>BECA DGP</v>
+      </c>
+      <c r="R21" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
         <v>NINGUNO</v>
       </c>
-      <c r="R21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"50% DSCTO. PRIMERA BOLETA")</f>
-        <v>50% DSCTO. PRIMERA BOLETA</v>
-      </c>
       <c r="S21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FABIOLA")</f>
+        <v>FABIOLA</v>
       </c>
       <c r="T21" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45814.0)</f>
-        <v>45814</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45813.0)</f>
+        <v>45813</v>
       </c>
       <c r="U21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"POS")</f>
-        <v>POS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
+        <v>CARGO</v>
       </c>
       <c r="V21" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
@@ -5184,17 +5118,14 @@
         <v>-</v>
       </c>
       <c r="Y21" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45814.0)</f>
-        <v>45814</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45813.0)</f>
+        <v>45813</v>
       </c>
       <c r="Z21" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA21" s="1"/>
       <c r="AB21" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
@@ -5208,12 +5139,12 @@
         <v>95</v>
       </c>
       <c r="AE21" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
-        <v>1500</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1600.0)</f>
+        <v>1600</v>
       </c>
       <c r="AF21" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
-        <v>1500</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1440.0)</f>
+        <v>1440</v>
       </c>
       <c r="AG21" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -5228,16 +5159,16 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1222355.0)</f>
-        <v>1222355</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),588905.0)</f>
+        <v>588905</v>
       </c>
       <c r="AK21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
-        <v>Más de 15 kms</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10 kms a 15 kms")</f>
+        <v>10 kms a 15 kms</v>
       </c>
       <c r="AL21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"05 301 a 550")</f>
-        <v>05 301 a 550</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"06 551 a 800")</f>
+        <v>06 551 a 800</v>
       </c>
       <c r="AM21" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0")</f>
@@ -5251,17 +5182,17 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2025.0)</f>
         <v>2025</v>
       </c>
-      <c r="AP21" s="3">
+      <c r="AP21" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
         <v>45809</v>
       </c>
-      <c r="AQ21" s="3">
+      <c r="AQ21" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
         <v>45803</v>
       </c>
       <c r="AR21" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45805.0)</f>
-        <v>45805</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45804.0)</f>
+        <v>45804</v>
       </c>
       <c r="AS21" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -5284,24 +5215,24 @@
         <v>BIDIRECCIONAL</v>
       </c>
       <c r="AX21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEARCH CARRERA")</f>
-        <v>SEARCH CARRERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
+        <v>ORGANICO</v>
       </c>
       <c r="AY21" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="AZ21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Daniel Zapata")</f>
-        <v>Daniel Zapata</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Cinthia Mariella Orosco")</f>
+        <v>Cinthia Mariella Orosco</v>
       </c>
       <c r="BA21" s="6">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BB21" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1350.0)</f>
-        <v>1350</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1440.0)</f>
+        <v>1440</v>
       </c>
       <c r="BC21" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -5327,50 +5258,53 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
-        <v/>
-      </c>
-      <c r="B22" s="1"/>
+      <c r="A22" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),21.0)</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4644125.0)</f>
+        <v>4644125</v>
+      </c>
       <c r="C22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000428503")</f>
-        <v>0000428503</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000428184")</f>
+        <v>0000428184</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANA LUCIA ")</f>
-        <v>ANA LUCIA </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARIAN GABRIEL ")</f>
+        <v>ARIAN GABRIEL </v>
       </c>
       <c r="E22" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"QUIROZ FARIAS")</f>
-        <v>QUIROZ FARIAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRANCO ALARCON")</f>
+        <v>FRANCO ALARCON</v>
       </c>
       <c r="F22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0734727E7)</f>
-        <v>70734727</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.2586436E7)</f>
+        <v>72586436</v>
       </c>
       <c r="G22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.72770086E8)</f>
-        <v>972770086</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.18246384E8)</f>
+        <v>918246384</v>
       </c>
       <c r="H22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"analuquirozf@gmail.com")</f>
-        <v>analuquirozf@gmail.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jennyalarcon183@gmail.com")</f>
+        <v>jennyalarcon183@gmail.com</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura de Interiores")</f>
-        <v>Arquitectura de Interiores</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicación Audiovisual y Cine")</f>
+        <v>Comunicación Audiovisual y Cine</v>
       </c>
       <c r="J22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecturas")</f>
-        <v>Arquitecturas</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunicaciones")</f>
+        <v>Comunicaciones</v>
       </c>
       <c r="K22" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
         <v>Antigua</v>
       </c>
       <c r="L22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Ordinaria")</f>
-        <v>Admisión Ordinaria</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión de Alto Rendimiento")</f>
+        <v>Admisión de Alto Rendimiento</v>
       </c>
       <c r="M22" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
@@ -5385,24 +5319,24 @@
         <v>NUEVO</v>
       </c>
       <c r="P22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA")</f>
-        <v>BECA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
+        <v>ESCALA REGULAR</v>
       </c>
       <c r="Q22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA CARRERAS CORE")</f>
-        <v>BECA CARRERAS CORE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
       </c>
       <c r="R22" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"50% DSCTO. PRIMERA BOLETA")</f>
         <v>50% DSCTO. PRIMERA BOLETA</v>
       </c>
       <c r="S22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FABIOLA")</f>
-        <v>FABIOLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
       </c>
       <c r="T22" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45819.0)</f>
-        <v>45819</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45814.0)</f>
+        <v>45814</v>
       </c>
       <c r="U22" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"POS")</f>
@@ -5421,17 +5355,14 @@
         <v>-</v>
       </c>
       <c r="Y22" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45819.0)</f>
-        <v>45819</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45814.0)</f>
+        <v>45814</v>
       </c>
       <c r="Z22" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
         <v>PAGO COMPLETO</v>
       </c>
-      <c r="AA22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
+      <c r="AA22" s="1"/>
       <c r="AB22" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
         <v>-</v>
@@ -5445,12 +5376,12 @@
         <v>95</v>
       </c>
       <c r="AE22" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1250.0)</f>
-        <v>1250</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
+        <v>1500</v>
       </c>
       <c r="AF22" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1115.0)</f>
-        <v>1115</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
+        <v>1500</v>
       </c>
       <c r="AG22" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -5465,14 +5396,17 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1242908.0)</f>
-        <v>1242908</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1222355.0)</f>
+        <v>1222355</v>
       </c>
       <c r="AK22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AL22" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
+        <v>Más de 15 kms</v>
+      </c>
+      <c r="AL22" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"05 301 a 550")</f>
+        <v>05 301 a 550</v>
+      </c>
       <c r="AM22" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0")</f>
         <v>0</v>
@@ -5485,17 +5419,17 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2025.0)</f>
         <v>2025</v>
       </c>
-      <c r="AP22" s="3">
+      <c r="AP22" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
         <v>45809</v>
       </c>
-      <c r="AQ22" s="3">
+      <c r="AQ22" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
         <v>45803</v>
       </c>
       <c r="AR22" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45806.0)</f>
-        <v>45806</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45805.0)</f>
+        <v>45805</v>
       </c>
       <c r="AS22" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
@@ -5506,27 +5440,36 @@
         <v>45775</v>
       </c>
       <c r="AU22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
-        <v>13</v>
-      </c>
-      <c r="AV22" s="1"/>
-      <c r="AW22" s="1"/>
-      <c r="AX22" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
+        <v>9</v>
+      </c>
+      <c r="AV22" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
+        <v>DIGITAL</v>
+      </c>
+      <c r="AW22" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIDIRECCIONAL")</f>
+        <v>BIDIRECCIONAL</v>
+      </c>
+      <c r="AX22" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEARCH CARRERA")</f>
+        <v>SEARCH CARRERA</v>
+      </c>
       <c r="AY22" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="AZ22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Cinthia Mariella Orosco")</f>
-        <v>Cinthia Mariella Orosco</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Daniel Zapata")</f>
+        <v>Daniel Zapata</v>
       </c>
       <c r="BA22" s="6">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="BB22" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1003.5)</f>
-        <v>1003.5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1350.0)</f>
+        <v>1350</v>
       </c>
       <c r="BC22" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -5557,62 +5500,215 @@
         <v/>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
+      <c r="C23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000428503")</f>
+        <v>0000428503</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANA LUCIA ")</f>
+        <v>ANA LUCIA </v>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"QUIROZ FARIAS")</f>
+        <v>QUIROZ FARIAS</v>
+      </c>
+      <c r="F23" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0734727E7)</f>
+        <v>70734727</v>
+      </c>
+      <c r="G23" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.72770086E8)</f>
+        <v>972770086</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"analuquirozf@gmail.com")</f>
+        <v>analuquirozf@gmail.com</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura de Interiores")</f>
+        <v>Arquitectura de Interiores</v>
+      </c>
+      <c r="J23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecturas")</f>
+        <v>Arquitecturas</v>
+      </c>
+      <c r="K23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
+        <v>Antigua</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Ordinaria")</f>
+        <v>Admisión Ordinaria</v>
+      </c>
+      <c r="M23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
+        <v>Semi-presencial</v>
+      </c>
+      <c r="N23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diurno")</f>
+        <v>Diurno</v>
+      </c>
+      <c r="O23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
+        <v>NUEVO</v>
+      </c>
+      <c r="P23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA")</f>
+        <v>BECA</v>
+      </c>
+      <c r="Q23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECA CARRERAS CORE")</f>
+        <v>BECA CARRERAS CORE</v>
+      </c>
+      <c r="R23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"50% DSCTO. PRIMERA BOLETA")</f>
+        <v>50% DSCTO. PRIMERA BOLETA</v>
+      </c>
+      <c r="S23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FABIOLA")</f>
+        <v>FABIOLA</v>
+      </c>
+      <c r="T23" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45819.0)</f>
+        <v>45819</v>
+      </c>
+      <c r="U23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"POS")</f>
+        <v>POS</v>
+      </c>
+      <c r="V23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
+      </c>
+      <c r="W23" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="Y23" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45819.0)</f>
+        <v>45819</v>
+      </c>
+      <c r="Z23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
+      </c>
       <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
+      <c r="AB23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="AC23" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
+        <v>50</v>
+      </c>
+      <c r="AD23" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
+        <v>95</v>
+      </c>
+      <c r="AE23" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1250.0)</f>
+        <v>1250</v>
+      </c>
+      <c r="AF23" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1115.0)</f>
+        <v>1115</v>
+      </c>
+      <c r="AG23" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1242908.0)</f>
+        <v>1242908</v>
+      </c>
+      <c r="AK23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
+      </c>
       <c r="AL23" s="1"/>
-      <c r="AM23" s="1"/>
-      <c r="AN23" s="1"/>
-      <c r="AO23" s="1"/>
-      <c r="AP23" s="1"/>
-      <c r="AQ23" s="1"/>
-      <c r="AR23" s="1"/>
-      <c r="AS23" s="1"/>
-      <c r="AT23" s="1"/>
-      <c r="AU23" s="1"/>
+      <c r="AM23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0")</f>
+        <v>0</v>
+      </c>
+      <c r="AN23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
+      </c>
+      <c r="AO23" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2025.0)</f>
+        <v>2025</v>
+      </c>
+      <c r="AP23" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
+        <v>45809</v>
+      </c>
+      <c r="AQ23" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
+        <v>45803</v>
+      </c>
+      <c r="AR23" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45806.0)</f>
+        <v>45806</v>
+      </c>
+      <c r="AS23" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
+        <v>45778</v>
+      </c>
+      <c r="AT23" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
+        <v>45775</v>
+      </c>
+      <c r="AU23" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
+        <v>13</v>
+      </c>
       <c r="AV23" s="1"/>
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
-      <c r="AY23" s="1"/>
-      <c r="AZ23" s="1"/>
-      <c r="BA23" s="1"/>
-      <c r="BB23" s="1"/>
-      <c r="BC23" s="1"/>
-      <c r="BD23" s="1"/>
-      <c r="BE23" s="1"/>
-      <c r="BF23" s="1"/>
+      <c r="AY23" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Cinthia Mariella Orosco")</f>
+        <v>Cinthia Mariella Orosco</v>
+      </c>
+      <c r="BA23" s="6">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="BB23" s="7">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1003.5)</f>
+        <v>1003.5</v>
+      </c>
+      <c r="BC23" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
+      </c>
+      <c r="BE23" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
+        <v>N/A</v>
+      </c>
       <c r="BG23" s="1"/>
       <c r="BH23" s="1"/>
       <c r="BI23" s="1" t="str">

--- a/DATA_VENTA26.1.xlsx
+++ b/DATA_VENTA26.1.xlsx
@@ -276,8 +276,8 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1vfGlXgx6gDvEJm5BoejovpvPG3GIi_VwV8uaFc2I9cc/edit?gid=1137002040#gid=1137002040"", ""Nuevo Master de Ventas 26-1!A1:BJ700"")"),"N°")</f>
-        <v>N°</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1vfGlXgx6gDvEJm5BoejovpvPG3GIi_VwV8uaFc2I9cc/edit?gid=1137002040#gid=1137002040"", ""Nuevo Master de Ventas 26-1!A1:BJ700"")"),"")</f>
+        <v/>
       </c>
       <c r="B1" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ID PROMETEO")</f>
@@ -1222,8 +1222,8 @@
         <v>1</v>
       </c>
       <c r="BD4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
-        <v> -</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ninguno")</f>
+        <v>Ninguno</v>
       </c>
       <c r="BE4" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -1574,8 +1574,8 @@
         <v>0</v>
       </c>
       <c r="X6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"31/05/2025")</f>
-        <v>31/05/2025</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"12/06/2025")</f>
+        <v>12/06/2025</v>
       </c>
       <c r="Y6" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45820.0)</f>
@@ -1694,8 +1694,8 @@
         <v>-</v>
       </c>
       <c r="BE6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF6" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0")</f>
@@ -2164,8 +2164,8 @@
         <v>1</v>
       </c>
       <c r="BD8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
-        <v> -</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas")</f>
+        <v>Matemáticas</v>
       </c>
       <c r="BE8" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -2407,8 +2407,8 @@
         <v>1</v>
       </c>
       <c r="BD9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
-        <v> -</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Matemáticas y Redacción")</f>
+        <v>Matemáticas y Redacción</v>
       </c>
       <c r="BE9" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -2890,8 +2890,8 @@
         <v>1</v>
       </c>
       <c r="BD11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
-        <v> -</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ninguno")</f>
+        <v>Ninguno</v>
       </c>
       <c r="BE11" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3004,17 +3004,20 @@
         <v>PAGO FRACCIONADO</v>
       </c>
       <c r="W12" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),600.0)</f>
-        <v>600</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="X12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"20/06/2025")</f>
-        <v>20/06/2025</v>
-      </c>
-      <c r="Y12" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"16/06/2025")</f>
+        <v>16/06/2025</v>
+      </c>
+      <c r="Y12" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45824.0)</f>
+        <v>45824</v>
+      </c>
       <c r="Z12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
-        <v>PAGO FRACCIONADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
       </c>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1" t="str">
@@ -3094,8 +3097,8 @@
         <v>45775</v>
       </c>
       <c r="AU12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0)</f>
-        <v>7</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
+        <v>26</v>
       </c>
       <c r="AV12" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
@@ -3118,8 +3121,8 @@
         <v>Cinthia Mariella Orosco</v>
       </c>
       <c r="BA12" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.5539033457249071)</f>
-        <v>0.5539033457</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BB12" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1200.0)</f>
@@ -3218,8 +3221,8 @@
         <v>NINGUNO</v>
       </c>
       <c r="R13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
-        <v>NINGUNO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"50% DSCTO. PRIMERA BOLETA")</f>
+        <v>50% DSCTO. PRIMERA BOLETA</v>
       </c>
       <c r="S13" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FABIOLA")</f>
@@ -3238,17 +3241,20 @@
         <v>PAGO FRACCIONADO</v>
       </c>
       <c r="W13" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1125.0)</f>
-        <v>1125</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
       <c r="X13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"20/06/2025")</f>
-        <v>20/06/2025</v>
-      </c>
-      <c r="Y13" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"16/06/2025")</f>
+        <v>16/06/2025</v>
+      </c>
+      <c r="Y13" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45824.0)</f>
+        <v>45824</v>
+      </c>
       <c r="Z13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
-        <v>PAGO FRACCIONADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
       </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1" t="str">
@@ -3328,8 +3334,8 @@
         <v>45775</v>
       </c>
       <c r="AU13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),21.0)</f>
+        <v>21</v>
       </c>
       <c r="AV13" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
@@ -3352,12 +3358,12 @@
         <v>Cinthia Mariella Orosco</v>
       </c>
       <c r="BA13" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.3161094224924012)</f>
-        <v>0.3161094225</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BB13" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
-        <v>1500</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1350.0)</f>
+        <v>1350</v>
       </c>
       <c r="BC13" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -4064,14 +4070,17 @@
         <v> -</v>
       </c>
       <c r="BE16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF16" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="BG16" s="1"/>
+      <c r="BG16" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45829.0)</f>
+        <v>45829</v>
+      </c>
       <c r="BH16" s="1"/>
       <c r="BI16" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
@@ -4775,14 +4784,17 @@
         <v> -</v>
       </c>
       <c r="BE19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF19" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="BG19" s="1"/>
+      <c r="BG19" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45829.0)</f>
+        <v>45829</v>
+      </c>
       <c r="BH19" s="1"/>
       <c r="BI19" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
@@ -5006,14 +5018,17 @@
         <v> -</v>
       </c>
       <c r="BE20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF20" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="BG20" s="1"/>
+      <c r="BG20" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45829.0)</f>
+        <v>45829</v>
+      </c>
       <c r="BH20" s="1"/>
       <c r="BI20" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
@@ -5243,14 +5258,17 @@
         <v> -</v>
       </c>
       <c r="BE21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF21" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="BG21" s="1"/>
+      <c r="BG21" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45829.0)</f>
+        <v>45829</v>
+      </c>
       <c r="BH21" s="1"/>
       <c r="BI21" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
@@ -5480,14 +5498,17 @@
         <v> -</v>
       </c>
       <c r="BE22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF22" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="BG22" s="1"/>
+      <c r="BG22" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45829.0)</f>
+        <v>45829</v>
+      </c>
       <c r="BH22" s="1"/>
       <c r="BI22" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
@@ -5495,11 +5516,14 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
-        <v/>
-      </c>
-      <c r="B23" s="1"/>
+      <c r="A23" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),22.0)</f>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5253677.0)</f>
+        <v>5253677</v>
+      </c>
       <c r="C23" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000428503")</f>
         <v>0000428503</v>
@@ -5634,10 +5658,13 @@
         <v>1242908</v>
       </c>
       <c r="AK23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AL23" s="1"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"5kms a 10 kms")</f>
+        <v>5kms a 10 kms</v>
+      </c>
+      <c r="AL23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"01 Nacional")</f>
+        <v>01 Nacional</v>
+      </c>
       <c r="AM23" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0")</f>
         <v>0</v>
@@ -5674,9 +5701,18 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
         <v>13</v>
       </c>
-      <c r="AV23" s="1"/>
-      <c r="AW23" s="1"/>
-      <c r="AX23" s="1"/>
+      <c r="AV23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TRADICIONAL")</f>
+        <v>TRADICIONAL</v>
+      </c>
+      <c r="AW23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EVENTOS")</f>
+        <v>EVENTOS</v>
+      </c>
+      <c r="AX23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EVENTOS")</f>
+        <v>EVENTOS</v>
+      </c>
       <c r="AY23" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
@@ -5702,14 +5738,17 @@
         <v> -</v>
       </c>
       <c r="BE23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF23" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="BG23" s="1"/>
+      <c r="BG23" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45829.0)</f>
+        <v>45829</v>
+      </c>
       <c r="BH23" s="1"/>
       <c r="BI23" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
@@ -5717,67 +5756,229 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
-        <v/>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
+      <c r="A24" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),23.0)</f>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1330752.0)</f>
+        <v>1330752</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000428188")</f>
+        <v>0000428188</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALICE")</f>
+        <v>ALICE</v>
+      </c>
+      <c r="E24" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MONTENEGRO MANRIQUE")</f>
+        <v>MONTENEGRO MANRIQUE</v>
+      </c>
+      <c r="F24" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.2058414E7)</f>
+        <v>72058414</v>
+      </c>
+      <c r="G24" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.5136439E8)</f>
+        <v>951364390</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"alice1234uwu@gmail.com")</f>
+        <v>alice1234uwu@gmail.com</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitectura")</f>
+        <v>Arquitectura</v>
+      </c>
+      <c r="J24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecturas")</f>
+        <v>Arquitecturas</v>
+      </c>
+      <c r="K24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
+        <v>Antigua</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión Ordinaria")</f>
+        <v>Admisión Ordinaria</v>
+      </c>
+      <c r="M24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
+        <v>Semi-presencial</v>
+      </c>
+      <c r="N24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diurno")</f>
+        <v>Diurno</v>
+      </c>
+      <c r="O24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
+        <v>NUEVO</v>
+      </c>
+      <c r="P24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
+        <v>ESCALA REGULAR</v>
+      </c>
+      <c r="Q24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
+      </c>
+      <c r="R24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
+      </c>
+      <c r="S24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FABIOLA")</f>
+        <v>FABIOLA</v>
+      </c>
+      <c r="T24" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45824.0)</f>
+        <v>45824</v>
+      </c>
+      <c r="U24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pago Link")</f>
+        <v>Pago Link</v>
+      </c>
+      <c r="V24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
+        <v>PAGO FRACCIONADO</v>
+      </c>
+      <c r="W24" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
+        <v>750</v>
+      </c>
+      <c r="X24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"25/06/2025")</f>
+        <v>25/06/2025</v>
+      </c>
       <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
+      <c r="Z24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO FRACCIONADO")</f>
+        <v>PAGO FRACCIONADO</v>
+      </c>
       <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="1"/>
-      <c r="AO24" s="1"/>
-      <c r="AP24" s="1"/>
-      <c r="AQ24" s="1"/>
-      <c r="AR24" s="1"/>
-      <c r="AS24" s="1"/>
-      <c r="AT24" s="1"/>
-      <c r="AU24" s="1"/>
-      <c r="AV24" s="1"/>
-      <c r="AW24" s="1"/>
-      <c r="AX24" s="1"/>
-      <c r="AY24" s="1"/>
-      <c r="AZ24" s="1"/>
-      <c r="BA24" s="1"/>
-      <c r="BB24" s="1"/>
-      <c r="BC24" s="1"/>
+      <c r="AB24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="AC24" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
+        <v>50</v>
+      </c>
+      <c r="AD24" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
+        <v>95</v>
+      </c>
+      <c r="AE24" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
+        <v>1500</v>
+      </c>
+      <c r="AF24" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
+        <v>1500</v>
+      </c>
+      <c r="AG24" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI24" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1756170.0)</f>
+        <v>1756170</v>
+      </c>
+      <c r="AK24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Más de 15 kms")</f>
+        <v>Más de 15 kms</v>
+      </c>
+      <c r="AL24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"05 301 a 550")</f>
+        <v>05 301 a 550</v>
+      </c>
+      <c r="AM24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0")</f>
+        <v>0</v>
+      </c>
+      <c r="AN24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
+      </c>
+      <c r="AO24" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2025.0)</f>
+        <v>2025</v>
+      </c>
+      <c r="AP24" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
+        <v>45809</v>
+      </c>
+      <c r="AQ24" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
+        <v>45803</v>
+      </c>
+      <c r="AR24" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45807.0)</f>
+        <v>45807</v>
+      </c>
+      <c r="AS24" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
+        <v>45778</v>
+      </c>
+      <c r="AT24" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
+        <v>45775</v>
+      </c>
+      <c r="AU24" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17.0)</f>
+        <v>17</v>
+      </c>
+      <c r="AV24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
+        <v>OUTBOUND</v>
+      </c>
+      <c r="AW24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
+        <v>OUTBOUND</v>
+      </c>
+      <c r="AX24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUTBOUND")</f>
+        <v>OUTBOUND</v>
+      </c>
+      <c r="AY24" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Cinthia Mariella Orosco")</f>
+        <v>Cinthia Mariella Orosco</v>
+      </c>
+      <c r="BA24" s="6">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.5440729483282675)</f>
+        <v>0.5440729483</v>
+      </c>
+      <c r="BB24" s="7">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1500.0)</f>
+        <v>1500</v>
+      </c>
+      <c r="BC24" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="BD24" s="1"/>
-      <c r="BE24" s="1"/>
-      <c r="BF24" s="1"/>
+      <c r="BE24" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
+        <v>N/A</v>
+      </c>
       <c r="BG24" s="1"/>
       <c r="BH24" s="1"/>
       <c r="BI24" s="1" t="str">
@@ -5786,68 +5987,230 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
-        <v/>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
+      <c r="A25" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1875874.0)</f>
+        <v>1875874</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0000041538")</f>
+        <v>0000041538</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUCIANA FRANCESCA")</f>
+        <v>LUCIANA FRANCESCA</v>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MORETTI BLONDET")</f>
+        <v>MORETTI BLONDET</v>
+      </c>
+      <c r="F25" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.2574049E7)</f>
+        <v>72574049</v>
+      </c>
+      <c r="G25" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.58648416E8)</f>
+        <v>958648416</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"blondetpamela@gmail.com")</f>
+        <v>blondetpamela@gmail.com</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño Gráfico Publicitario")</f>
+        <v>Diseño Gráfico Publicitario</v>
+      </c>
+      <c r="J25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseño")</f>
+        <v>Diseño</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Antigua")</f>
+        <v>Antigua</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Admisión de Alto Rendimiento")</f>
+        <v>Admisión de Alto Rendimiento</v>
+      </c>
+      <c r="M25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Semi-presencial")</f>
+        <v>Semi-presencial</v>
+      </c>
+      <c r="N25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diurno")</f>
+        <v>Diurno</v>
+      </c>
+      <c r="O25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NUEVO")</f>
+        <v>NUEVO</v>
+      </c>
+      <c r="P25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCALA REGULAR")</f>
+        <v>ESCALA REGULAR</v>
+      </c>
+      <c r="Q25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
+      </c>
+      <c r="R25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NINGUNO")</f>
+        <v>NINGUNO</v>
+      </c>
+      <c r="S25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="T25" s="3">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45824.0)</f>
+        <v>45824</v>
+      </c>
+      <c r="U25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARGO")</f>
+        <v>CARGO</v>
+      </c>
+      <c r="V25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
+      </c>
+      <c r="W25" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="X25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="Y25" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45824.0)</f>
+        <v>45824</v>
+      </c>
+      <c r="Z25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAGO COMPLETO")</f>
+        <v>PAGO COMPLETO</v>
+      </c>
       <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
+      <c r="AB25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="AC25" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
+        <v>50</v>
+      </c>
+      <c r="AD25" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
+        <v>95</v>
+      </c>
+      <c r="AE25" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1400.0)</f>
+        <v>1400</v>
+      </c>
+      <c r="AF25" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1400.0)</f>
+        <v>1400</v>
+      </c>
+      <c r="AG25" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),449496.0)</f>
+        <v>449496</v>
+      </c>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="1"/>
-      <c r="AO25" s="1"/>
-      <c r="AP25" s="1"/>
-      <c r="AQ25" s="1"/>
-      <c r="AR25" s="1"/>
-      <c r="AS25" s="1"/>
-      <c r="AT25" s="1"/>
-      <c r="AU25" s="1"/>
-      <c r="AV25" s="1"/>
-      <c r="AW25" s="1"/>
-      <c r="AX25" s="1"/>
-      <c r="AY25" s="1"/>
-      <c r="AZ25" s="1"/>
-      <c r="BA25" s="1"/>
-      <c r="BB25" s="1"/>
-      <c r="BC25" s="1"/>
+      <c r="AM25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0")</f>
+        <v>0</v>
+      </c>
+      <c r="AN25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
+      </c>
+      <c r="AO25" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2025.0)</f>
+        <v>2025</v>
+      </c>
+      <c r="AP25" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45809.0)</f>
+        <v>45809</v>
+      </c>
+      <c r="AQ25" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45803.0)</f>
+        <v>45803</v>
+      </c>
+      <c r="AR25" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45808.0)</f>
+        <v>45808</v>
+      </c>
+      <c r="AS25" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45778.0)</f>
+        <v>45778</v>
+      </c>
+      <c r="AT25" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45775.0)</f>
+        <v>45775</v>
+      </c>
+      <c r="AU25" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
+      </c>
+      <c r="AV25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIGITAL")</f>
+        <v>DIGITAL</v>
+      </c>
+      <c r="AW25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIDIRECCIONAL")</f>
+        <v>BIDIRECCIONAL</v>
+      </c>
+      <c r="AX25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORGANICO")</f>
+        <v>ORGANICO</v>
+      </c>
+      <c r="AY25" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Daniel Zapata")</f>
+        <v>Daniel Zapata</v>
+      </c>
+      <c r="BA25" s="6">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="BB25" s="7">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1400.0)</f>
+        <v>1400</v>
+      </c>
+      <c r="BC25" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="BD25" s="1"/>
-      <c r="BE25" s="1"/>
-      <c r="BF25" s="1"/>
-      <c r="BG25" s="1"/>
+      <c r="BE25" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="BG25" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45829.0)</f>
+        <v>45829</v>
+      </c>
       <c r="BH25" s="1"/>
       <c r="BI25" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>

--- a/DATA_VENTA26.1.xlsx
+++ b/DATA_VENTA26.1.xlsx
@@ -1938,7 +1938,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="BG7" s="1"/>
+      <c r="BG7" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45829.0)</f>
+        <v>45829</v>
+      </c>
       <c r="BH7" s="1"/>
       <c r="BI7" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
@@ -3144,7 +3147,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="BG12" s="1"/>
+      <c r="BG12" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45829.0)</f>
+        <v>45829</v>
+      </c>
       <c r="BH12" s="1"/>
       <c r="BI12" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
@@ -3381,7 +3387,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="BG13" s="1"/>
+      <c r="BG13" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45829.0)</f>
+        <v>45829</v>
+      </c>
       <c r="BH13" s="1"/>
       <c r="BI13" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
@@ -3846,7 +3855,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="BG15" s="1"/>
+      <c r="BG15" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45829.0)</f>
+        <v>45829</v>
+      </c>
       <c r="BH15" s="1"/>
       <c r="BI15" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
@@ -5970,7 +5982,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="BD24" s="1"/>
+      <c r="BD24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
+      </c>
       <c r="BE24" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
@@ -6198,7 +6213,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="BD25" s="1"/>
+      <c r="BD25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," -")</f>
+        <v> -</v>
+      </c>
       <c r="BE25" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>

--- a/DATA_VENTA26.1.xlsx
+++ b/DATA_VENTA26.1.xlsx
@@ -3140,8 +3140,8 @@
         <v> -</v>
       </c>
       <c r="BE12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF12" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
@@ -3380,8 +3380,8 @@
         <v> -</v>
       </c>
       <c r="BE13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF13" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
@@ -6218,8 +6218,8 @@
         <v> -</v>
       </c>
       <c r="BE25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="BF25" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
